--- a/TestOnlineUI/wwwroot/File/ListMember.xlsx
+++ b/TestOnlineUI/wwwroot/File/ListMember.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -133,6 +133,15 @@
   </si>
   <si>
     <t>nhulai@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test 3 </t>
+  </si>
+  <si>
+    <t>hama@gmail.com</t>
+  </si>
+  <si>
+    <t>binh dinh</t>
   </si>
 </sst>
 </file>
@@ -499,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,12 +577,30 @@
         <v>34377</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>34343434344</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>